--- a/src/data/notebook_examples/4_comp_linear_hydrocarbons.xlsx
+++ b/src/data/notebook_examples/4_comp_linear_hydrocarbons.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Desktop\sns_modeling\src\data\test_problems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Desktop\sns_modeling\src\data\notebook_examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83036053-0D36-4A2F-9E5A-BE5CD034E2E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D00BC43-76F6-459A-8539-F205123BC4E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-2190" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="system" sheetId="1" r:id="rId1"/>
@@ -460,8 +460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -500,12 +500,13 @@
       <c r="C2" s="2">
         <v>85</v>
       </c>
-      <c r="D2" s="1">
-        <f>150000/1000000</f>
-        <v>0.15</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
+      <c r="D2" s="5">
+        <f>0.19/1000</f>
+        <v>1.9000000000000001E-4</v>
+      </c>
+      <c r="E2" s="5">
+        <f>5.09/1000</f>
+        <v>5.0899999999999999E-3</v>
       </c>
     </row>
   </sheetData>
@@ -518,8 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D5B4ED9-9AA6-42DD-91B2-CD44C4CD8B29}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="B1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -570,7 +571,8 @@
         <v>0.1</v>
       </c>
       <c r="D2" s="2">
-        <v>12.1</v>
+        <f>ROUND((8.9/1.55), 2)</f>
+        <v>5.74</v>
       </c>
       <c r="E2" s="2">
         <v>877</v>
@@ -582,7 +584,7 @@
         <v>28.87</v>
       </c>
       <c r="H2" s="2">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -596,7 +598,8 @@
         <v>0.25</v>
       </c>
       <c r="D3" s="2">
-        <v>5.7</v>
+        <f>ROUND((5.7/1.55),2)</f>
+        <v>3.68</v>
       </c>
       <c r="E3" s="2">
         <v>868</v>
@@ -608,7 +611,7 @@
         <v>31.71</v>
       </c>
       <c r="H3" s="2">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -622,7 +625,8 @@
         <v>0.4</v>
       </c>
       <c r="D4" s="2">
-        <v>3.8</v>
+        <f>ROUND((3.2/1.55),2)</f>
+        <v>2.06</v>
       </c>
       <c r="E4" s="2">
         <v>868</v>
@@ -634,7 +638,7 @@
         <v>34.43</v>
       </c>
       <c r="H4" s="2">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -660,7 +664,7 @@
         <v>36.93</v>
       </c>
       <c r="H5" s="2">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -744,11 +748,6 @@
       <c r="H13" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{2D5B4ED9-9AA6-42DD-91B2-CD44C4CD8B29}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G15">
-      <sortCondition descending="1" ref="D1"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>